--- a/积累好词好句.xlsx
+++ b/积累好词好句.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\最重要的事\托福\fancy老师的课\作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\最重要的事\托福\单词\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F833397-7EEA-485E-BC34-773A2BE6536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3F129C-8F15-469A-973E-2D07D6DB696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12413" yWindow="3135" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>在…的时候</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,138 @@
   </si>
   <si>
     <t>把…穿暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许多年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place my fingers on the strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将手放在琴弦上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bother doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费事做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a hurry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匆忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sneak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管；尽管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥皂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whatsoever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upcoming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将到来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contradict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与…发生矛盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到处走走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发出飕飕声；高速移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a couple of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个；几个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -928,6 +1060,147 @@
         <v>69</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
